--- a/output/fit_clients/fit_round_173.xlsx
+++ b/output/fit_clients/fit_round_173.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1806637317.728662</v>
+        <v>1559753905.398274</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1084105348388873</v>
+        <v>0.09660498428946175</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02871464493648719</v>
+        <v>0.02881339809469192</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>903318628.4790119</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1837052269.82314</v>
+        <v>1772791210.198301</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1392325618782506</v>
+        <v>0.1398643389257875</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04547773135931165</v>
+        <v>0.04800935022469269</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>918526149.7020096</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3879869422.24375</v>
+        <v>4199448299.261429</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1104314304914746</v>
+        <v>0.1636235636716406</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02620149031978231</v>
+        <v>0.02479082226007635</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>62</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1939934716.766143</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3461500097.591293</v>
+        <v>3335144110.509633</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1080131179337395</v>
+        <v>0.0798558759967589</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0487521330904108</v>
+        <v>0.03213417401958044</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>65</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1730750088.1109</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2006188099.225658</v>
+        <v>1772460879.469804</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1096828339980062</v>
+        <v>0.129266180112879</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04877847183043349</v>
+        <v>0.05654159170639923</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>26</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1003094078.515867</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2511182135.898105</v>
+        <v>2664019449.028152</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09138946875152347</v>
+        <v>0.06985646817291764</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04431026993040373</v>
+        <v>0.04681168347510002</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>54</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1255591079.921566</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2555760894.278134</v>
+        <v>2844880725.225597</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1761654568019934</v>
+        <v>0.1517678756309623</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02905391485622784</v>
+        <v>0.03097755502783501</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>55</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1277880459.218608</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1842806432.493193</v>
+        <v>1939827198.39058</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1924810255066227</v>
+        <v>0.1849396266117004</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03471452743450379</v>
+        <v>0.02885576304270047</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>921403264.637235</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4210908038.098835</v>
+        <v>4827948704.578882</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1713135084381611</v>
+        <v>0.1942435091006215</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04410693103932605</v>
+        <v>0.04068030400573992</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>73</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2105454057.238442</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2647092649.719311</v>
+        <v>3439553816.152612</v>
       </c>
       <c r="F11" t="n">
-        <v>0.147491454485482</v>
+        <v>0.1692283992701452</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04501073518200976</v>
+        <v>0.04078073209391977</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>71</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1323546243.132126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2544573217.834249</v>
+        <v>2647673046.148527</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1288387205025788</v>
+        <v>0.1399906593578577</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03480714775706794</v>
+        <v>0.04864013417604756</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>61</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1272286585.197516</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5066233975.847145</v>
+        <v>5001962800.543897</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09802756664683976</v>
+        <v>0.06829431866081055</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02603952516396912</v>
+        <v>0.02874928319401166</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>58</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2533116988.663129</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2641559004.581767</v>
+        <v>2489962682.372652</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1231742420080089</v>
+        <v>0.1250487749545142</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03288482118700588</v>
+        <v>0.03248061825292048</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>57</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1320779562.660383</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1528423466.690408</v>
+        <v>1109984296.665268</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1009068857104083</v>
+        <v>0.1037352813253895</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03865953298336158</v>
+        <v>0.04556489158368582</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>764211825.2597271</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2210740294.147809</v>
+        <v>2571322230.498024</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0892037624780504</v>
+        <v>0.07955096517992127</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04546496793605827</v>
+        <v>0.04424172614748029</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>27</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1105370203.706043</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4143881818.30186</v>
+        <v>4545511479.385396</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1376221782649403</v>
+        <v>0.1066050653000068</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05263834902459413</v>
+        <v>0.04354231194967905</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>50</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2071940936.562099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3968482201.65004</v>
+        <v>2560203695.62137</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1551126208604993</v>
+        <v>0.1771001216860099</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0331023353089567</v>
+        <v>0.02764977633903705</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>56</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1984241060.899691</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>991539063.6267637</v>
+        <v>1245325487.616647</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1595639263969251</v>
+        <v>0.1362995747561214</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02165913408028169</v>
+        <v>0.02180608687835409</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>495769558.9487743</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1893461484.410839</v>
+        <v>1985443091.104356</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1447528621257671</v>
+        <v>0.1484278663183013</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02636915618057122</v>
+        <v>0.02788007675238082</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>29</v>
-      </c>
-      <c r="J20" t="n">
-        <v>946730779.8747987</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1880287645.274929</v>
+        <v>2116080165.272365</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09426762618988659</v>
+        <v>0.07342511360143128</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03330215458697034</v>
+        <v>0.03135928830783798</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14</v>
-      </c>
-      <c r="J21" t="n">
-        <v>940143870.0115188</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4047652541.297552</v>
+        <v>3010620338.758058</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1071355723643851</v>
+        <v>0.09348905629942371</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0539799884507688</v>
+        <v>0.04411239273690712</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>48</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2023826269.413317</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1506164028.570362</v>
+        <v>1466505128.578867</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1295276031597847</v>
+        <v>0.1309081725909423</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04219511910636711</v>
+        <v>0.03989275615316339</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>753081999.1517887</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2767412627.01178</v>
+        <v>4126423350.991649</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09516059852518759</v>
+        <v>0.1254934670133619</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03073132075124224</v>
+        <v>0.02961345983473071</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>51</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1383706364.335033</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1271018468.553928</v>
+        <v>927738397.101864</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1149695226786592</v>
+        <v>0.1190995579478337</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02334720892752768</v>
+        <v>0.02686064900153186</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>635509235.8818306</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1108850626.618256</v>
+        <v>1423541165.236349</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1029686415744854</v>
+        <v>0.08922079319746376</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03727797706408473</v>
+        <v>0.02998690312398058</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>554425312.0543642</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4513003294.48758</v>
+        <v>3267143808.547421</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1003441133341284</v>
+        <v>0.1538714051711207</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01811673116286492</v>
+        <v>0.02596690576012255</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>39</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2256501631.858261</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3509782906.837534</v>
+        <v>3900536283.323623</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0951636047421287</v>
+        <v>0.1484594300363803</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0406667659577333</v>
+        <v>0.04110544825002568</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>55</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1754891508.883032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3619693575.804956</v>
+        <v>4817767305.981384</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1382205767947207</v>
+        <v>0.1017910801489254</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04255131080800975</v>
+        <v>0.04641882729294232</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>77</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1809846831.059273</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1995088117.500387</v>
+        <v>2040510464.508453</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09661429688645205</v>
+        <v>0.1302468615014467</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0245171309828413</v>
+        <v>0.03034836292647778</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>997544095.6068006</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1204934793.287222</v>
+        <v>1304835830.736658</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08990394633460164</v>
+        <v>0.1052607616687751</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0483570243524936</v>
+        <v>0.04072516215348216</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>602467346.9207761</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1861970486.57536</v>
+        <v>1433502912.308423</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1006360851327388</v>
+        <v>0.1110791886246223</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02662263901727254</v>
+        <v>0.0377817011632104</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>930985386.5838282</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2615484167.225028</v>
+        <v>2877607545.663285</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2011277031408325</v>
+        <v>0.1692983309836941</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05324099671325237</v>
+        <v>0.03822180382521168</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>53</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1307742111.95746</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1539737015.676975</v>
+        <v>1550157310.876979</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1217021015891001</v>
+        <v>0.1111913668591604</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0262116718494937</v>
+        <v>0.01886464481922498</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>769868457.1113971</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>896194278.4013621</v>
+        <v>1160323348.077714</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1004590441489438</v>
+        <v>0.1129033380544965</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03574930552286282</v>
+        <v>0.04516793008930637</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>448097180.5165215</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2074079146.047643</v>
+        <v>2714828601.086792</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1699443264013686</v>
+        <v>0.1679224468758339</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01746764314959155</v>
+        <v>0.02321647060604143</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>43</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1037039629.108291</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2337847949.04248</v>
+        <v>1794170548.053377</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07582098260960166</v>
+        <v>0.06874390522376707</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04079631490503469</v>
+        <v>0.03895055233197831</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>48</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1168924048.277722</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1359783640.311614</v>
+        <v>1999112053.601755</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1086318374067408</v>
+        <v>0.09969723115987149</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02872394963809101</v>
+        <v>0.03288422380755143</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>679891889.1880496</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1969753747.156289</v>
+        <v>2173119518.224719</v>
       </c>
       <c r="F39" t="n">
-        <v>0.179649369228451</v>
+        <v>0.191731880237804</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02780304025016718</v>
+        <v>0.02789442273296682</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>984876872.6692396</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1329218647.47712</v>
+        <v>1317284025.311949</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1216562206947133</v>
+        <v>0.1117734323728945</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05916189032395735</v>
+        <v>0.05287966851274738</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>664609332.6550591</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2605800627.152062</v>
+        <v>2520873751.468429</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1104207592988088</v>
+        <v>0.1305164292971804</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03501461552597772</v>
+        <v>0.02908117414832297</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>45</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1302900328.452169</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4175628571.855658</v>
+        <v>4126076866.337812</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1152438457753046</v>
+        <v>0.1274954701186195</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04515281061495857</v>
+        <v>0.043284382497631</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>59</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2087814327.281129</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2439572041.888733</v>
+        <v>1921320440.994632</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2044269117546859</v>
+        <v>0.1619632254027861</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01721419897992128</v>
+        <v>0.02358422231300546</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>60</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1219786075.666491</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2266952395.165634</v>
+        <v>1879362720.07413</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07750727370454497</v>
+        <v>0.1007366734696294</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03283387106967281</v>
+        <v>0.02725399339869822</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1133476357.157677</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2161254641.926152</v>
+        <v>2079366529.930342</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1941131488014447</v>
+        <v>0.1944001999702497</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05252106847287799</v>
+        <v>0.05280970012363813</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1080627328.029427</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3624642364.158962</v>
+        <v>5543942868.314841</v>
       </c>
       <c r="F46" t="n">
-        <v>0.120353430388073</v>
+        <v>0.1547110015076204</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03985837265227715</v>
+        <v>0.0377676296196292</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>62</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1812321130.091897</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5079906187.177531</v>
+        <v>3370592437.880176</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1506856313333348</v>
+        <v>0.1323386859719814</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04573350992657306</v>
+        <v>0.04697652640875941</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>46</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2539953153.891556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4233185265.013663</v>
+        <v>4172535843.997668</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1035618525326878</v>
+        <v>0.1070192949884666</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02570657019961232</v>
+        <v>0.02688613653053917</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>56</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2116592653.286869</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1914287651.745478</v>
+        <v>1252758926.741894</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1285311216217289</v>
+        <v>0.1943973689461143</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03925805492721666</v>
+        <v>0.04484697785833071</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>957143793.4564605</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3108391892.759573</v>
+        <v>3340870656.731564</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1772116852477381</v>
+        <v>0.1476078943686016</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04777732045034309</v>
+        <v>0.0445661328108653</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>59</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1554195998.472537</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1418704107.008077</v>
+        <v>1472390358.431164</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1400676587153052</v>
+        <v>0.1748505418492271</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04934846756663819</v>
+        <v>0.04097762836726315</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>709352069.5919274</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4888774296.003403</v>
+        <v>5117324997.155632</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09127244957550934</v>
+        <v>0.1199882601933819</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0476249426533228</v>
+        <v>0.05243045101069695</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>71</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2444387152.14855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3807291010.774207</v>
+        <v>3357243466.608871</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1994550571771602</v>
+        <v>0.1515580694284364</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03502878179767378</v>
+        <v>0.03487816258730794</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>49</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1903645482.079717</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3532885861.274745</v>
+        <v>3290828233.703825</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1542547728591013</v>
+        <v>0.1216892245361467</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04841828910312887</v>
+        <v>0.04679788746021339</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>58</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1766442958.009293</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3325176440.958171</v>
+        <v>3701146964.660909</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1524002681664384</v>
+        <v>0.1900499316500853</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02156534424235674</v>
+        <v>0.02490723685058215</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>44</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1662588165.564634</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1360394600.586301</v>
+        <v>1869334097.932923</v>
       </c>
       <c r="F56" t="n">
-        <v>0.161481804112343</v>
+        <v>0.1553391226209383</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03841322239640722</v>
+        <v>0.0475017782620579</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>680197363.1785914</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4306120682.529814</v>
+        <v>2933874025.278489</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1337461609583729</v>
+        <v>0.1145635302515146</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01696530803325375</v>
+        <v>0.01892468793075867</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>55</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2153060455.299347</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1797466738.284485</v>
+        <v>1430654420.878067</v>
       </c>
       <c r="F58" t="n">
-        <v>0.199451363387196</v>
+        <v>0.202098295197405</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02902285972692099</v>
+        <v>0.03119813062501957</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>898733373.0964791</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5138032805.396439</v>
+        <v>5304246001.341808</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08428849499453198</v>
+        <v>0.1271593709349005</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03251244035147786</v>
+        <v>0.04996861860811096</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>49</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2569016323.708738</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3391994235.176663</v>
+        <v>2965590242.203952</v>
       </c>
       <c r="F60" t="n">
-        <v>0.171537377812823</v>
+        <v>0.1896651348077283</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02795852855469944</v>
+        <v>0.03167030362420465</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>54</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1695997229.03055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3237408622.538959</v>
+        <v>2973387418.980242</v>
       </c>
       <c r="F61" t="n">
-        <v>0.139955177780431</v>
+        <v>0.1591755250685805</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02015918417984639</v>
+        <v>0.0317347766030623</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>59</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1618704269.319771</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1949353006.384466</v>
+        <v>1729575796.997104</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1788712041857335</v>
+        <v>0.1361925045719184</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03238368334126918</v>
+        <v>0.04634421313147821</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>974676553.6518793</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4151625434.612954</v>
+        <v>5300611195.317748</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09690938701118217</v>
+        <v>0.103152399767842</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0406778572511548</v>
+        <v>0.03090727806839411</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>50</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2075812772.886633</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4012431923.565685</v>
+        <v>3595347811.953145</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1156686252738612</v>
+        <v>0.1659650250357833</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03005548938323706</v>
+        <v>0.02773777991611382</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>54</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2006215998.490862</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5856632114.601428</v>
+        <v>3989329427.720336</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1405066428992248</v>
+        <v>0.1236256913875721</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03167199701504637</v>
+        <v>0.03086102492658434</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>62</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2928315965.079346</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3613673508.850868</v>
+        <v>5362840395.577127</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1247062711691181</v>
+        <v>0.120788052110878</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04339895869449462</v>
+        <v>0.04324069355898515</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>50</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1806836707.251038</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2993512762.844534</v>
+        <v>2661310961.164901</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09956366573801395</v>
+        <v>0.08533109102922719</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04494756847855441</v>
+        <v>0.04214413836996714</v>
       </c>
       <c r="H67" t="b">
         <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>55</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1496756400.212374</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3894857808.242613</v>
+        <v>4179379945.663926</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1319933792074904</v>
+        <v>0.154343920275811</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03489863180207815</v>
+        <v>0.03786619798389442</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>57</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1947428893.506795</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1953528238.523259</v>
+        <v>2088166199.406923</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1295019844027542</v>
+        <v>0.174867557774248</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04850991865137232</v>
+        <v>0.05097541282497434</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>976764118.2063265</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2415920573.791217</v>
+        <v>3080990873.121775</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08788676514821651</v>
+        <v>0.07405552388857224</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04148605547081922</v>
+        <v>0.04824096446295308</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>49</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1207960225.913431</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5629988711.903008</v>
+        <v>5168720442.801749</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1457596134860352</v>
+        <v>0.1312334251292047</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03007165044097055</v>
+        <v>0.02721317806444933</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>63</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2814994508.663159</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2212951542.200181</v>
+        <v>2280927364.08177</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07350252347885063</v>
+        <v>0.08339242576373458</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03391835383870071</v>
+        <v>0.05048566003788547</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1106475683.066041</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2800883465.851602</v>
+        <v>3424526088.115125</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07954588999149644</v>
+        <v>0.1067221411995565</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04432441081111481</v>
+        <v>0.03444632271277416</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>67</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1400441747.121653</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3574124097.903519</v>
+        <v>3873680324.828873</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1358638938127417</v>
+        <v>0.1746332620772319</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02436652580026044</v>
+        <v>0.03178293623467211</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>59</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1787062064.685513</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2242507631.623455</v>
+        <v>1854967899.144539</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1115206893137501</v>
+        <v>0.1492454252788635</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0300117304000563</v>
+        <v>0.03683535659204477</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1121253757.184315</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4219589485.361264</v>
+        <v>4472158825.766309</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1007852375417285</v>
+        <v>0.1010241388423169</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03087585312359162</v>
+        <v>0.02442420661366143</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>38</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2109794736.592769</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1575285036.73663</v>
+        <v>1623461586.528633</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1723214349230206</v>
+        <v>0.1658038513733298</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02796893041257077</v>
+        <v>0.0316316946499766</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>787642517.121982</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4555742330.626776</v>
+        <v>4059703054.173459</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1251714883804203</v>
+        <v>0.112649161958801</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0425402485838515</v>
+        <v>0.03960185248172164</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>60</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2277871091.242378</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1732714615.499951</v>
+        <v>1306206622.88283</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1674210530595269</v>
+        <v>0.1303002840379274</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03159352773110556</v>
+        <v>0.04066860273794658</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>866357382.6492105</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3814292295.973944</v>
+        <v>3575426666.43348</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1105987804065467</v>
+        <v>0.1098701522165261</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0361434281344257</v>
+        <v>0.0234745498006775</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>36</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1907146138.202808</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3862339939.722817</v>
+        <v>3927030001.04354</v>
       </c>
       <c r="F81" t="n">
-        <v>0.100734625691055</v>
+        <v>0.1372507054416457</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03042975446788294</v>
+        <v>0.02291639758293303</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>39</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1931169927.946852</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4375204223.289694</v>
+        <v>4502697294.970189</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1734098038562728</v>
+        <v>0.1531193542508172</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02915607485143842</v>
+        <v>0.01907644676284366</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>63</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2187602130.449831</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1552612388.632849</v>
+        <v>2318356228.10131</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1126314462294346</v>
+        <v>0.1208270247312916</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0326477232810879</v>
+        <v>0.0318725255864951</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>776306123.9452257</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2309114084.351743</v>
+        <v>1834669490.751184</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1082854611767373</v>
+        <v>0.1034744145164746</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04262334032496374</v>
+        <v>0.04180301188259519</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1154557001.860866</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3037016714.113157</v>
+        <v>3556564717.433027</v>
       </c>
       <c r="F85" t="n">
-        <v>0.122410598000424</v>
+        <v>0.1165010974369409</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05461340249667855</v>
+        <v>0.04458806561512352</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>65</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1518508421.259451</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2721559791.366131</v>
+        <v>2075966944.176377</v>
       </c>
       <c r="F86" t="n">
-        <v>0.129431556619922</v>
+        <v>0.1703531068823225</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02012446226330709</v>
+        <v>0.02022019808171231</v>
       </c>
       <c r="H86" t="b">
         <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>22</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1360780023.620338</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1337530834.669501</v>
+        <v>1374523073.832416</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1342215781380362</v>
+        <v>0.157675952930955</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03929939835381361</v>
+        <v>0.03926263208799947</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>668765508.1426938</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3714772552.008747</v>
+        <v>3557420929.824138</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1370725016396189</v>
+        <v>0.1172450612082406</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02436722681487409</v>
+        <v>0.03541107018198406</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>68</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1857386377.057967</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2910826334.371425</v>
+        <v>3402630237.910049</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1292766559724265</v>
+        <v>0.1128525333199516</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03950220149591997</v>
+        <v>0.03686764400725386</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>59</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1455413211.815679</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1750318674.688369</v>
+        <v>1563998107.879289</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1067319747617815</v>
+        <v>0.08730020096003659</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04840083605766253</v>
+        <v>0.0490649533853171</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>875159361.8614615</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1674540237.62465</v>
+        <v>1302338368.600123</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1299650680485951</v>
+        <v>0.1242367791326177</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04592922475246256</v>
+        <v>0.04703410934444378</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>837270134.419769</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2993124930.880414</v>
+        <v>2088082373.034375</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07954868256795852</v>
+        <v>0.08569936220547927</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03270015700383824</v>
+        <v>0.04580244113327495</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>42</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1496562486.622123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4682388901.408829</v>
+        <v>3468698160.940258</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09408927996026181</v>
+        <v>0.1138661668604029</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05171257783239881</v>
+        <v>0.041818493598144</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>53</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2341194407.169716</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2484470102.674315</v>
+        <v>1878061593.672713</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1589538055224083</v>
+        <v>0.1587293955847472</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04216865657714227</v>
+        <v>0.02711900285129479</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1242235112.695186</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2869560296.300258</v>
+        <v>2674234733.353425</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1295967045146596</v>
+        <v>0.08402283598111918</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05238386565153296</v>
+        <v>0.04495176376341806</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>42</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1434780157.328174</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2215476411.54648</v>
+        <v>1912575417.237744</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1052270679593186</v>
+        <v>0.1369777816848267</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04606496916829789</v>
+        <v>0.04717958887857359</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1107738169.722179</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5235495683.474077</v>
+        <v>4606258076.509088</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1295481457871369</v>
+        <v>0.1317482343214833</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02279210818989257</v>
+        <v>0.02022848871623629</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>59</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2617747997.444272</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3119667038.006529</v>
+        <v>3263032779.005628</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08511950495433711</v>
+        <v>0.08751569398514801</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02827013136665792</v>
+        <v>0.0228784138038552</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>46</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1559833511.77331</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2234615422.234986</v>
+        <v>3304931109.30695</v>
       </c>
       <c r="F99" t="n">
-        <v>0.119808745367453</v>
+        <v>0.1024873392369254</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02782079650346589</v>
+        <v>0.02666730081463751</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>55</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1117307641.552448</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4790490201.308733</v>
+        <v>3777011566.900125</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1775667945345242</v>
+        <v>0.1290726655477566</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02418532113428625</v>
+        <v>0.02725538935563826</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>54</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2395245234.405173</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3272278514.86349</v>
+        <v>2976579036.250657</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2143750327028665</v>
+        <v>0.1873621648869087</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05342379033907129</v>
+        <v>0.03815660717375642</v>
       </c>
       <c r="H101" t="b">
         <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>70</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1636139382.416801</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_173.xlsx
+++ b/output/fit_clients/fit_round_173.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1559753905.398274</v>
+        <v>2224682957.161125</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09660498428946175</v>
+        <v>0.1019867865856904</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02881339809469192</v>
+        <v>0.03066171098707183</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1772791210.198301</v>
+        <v>2232899720.545877</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1398643389257875</v>
+        <v>0.1303896192403138</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04800935022469269</v>
+        <v>0.03844192355877379</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4199448299.261429</v>
+        <v>4634484336.14994</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1636235636716406</v>
+        <v>0.1121972691463411</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02479082226007635</v>
+        <v>0.0310985126921381</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3335144110.509633</v>
+        <v>2638137409.046345</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0798558759967589</v>
+        <v>0.0962693557211456</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03213417401958044</v>
+        <v>0.03151526344074507</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1772460879.469804</v>
+        <v>2734511448.075611</v>
       </c>
       <c r="F6" t="n">
-        <v>0.129266180112879</v>
+        <v>0.09628611778603961</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05654159170639923</v>
+        <v>0.04924803130255435</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2664019449.028152</v>
+        <v>2035877457.561892</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06985646817291764</v>
+        <v>0.0628793555005383</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04681168347510002</v>
+        <v>0.0327052224947025</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2844880725.225597</v>
+        <v>3639300174.607281</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1517678756309623</v>
+        <v>0.1603501602397582</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03097755502783501</v>
+        <v>0.02068729801255747</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1939827198.39058</v>
+        <v>1559427922.65196</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1849396266117004</v>
+        <v>0.178301092567679</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02885576304270047</v>
+        <v>0.02515780331360288</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4827948704.578882</v>
+        <v>5332050128.008292</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1942435091006215</v>
+        <v>0.156543848246013</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04068030400573992</v>
+        <v>0.04946502177056235</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3439553816.152612</v>
+        <v>3355673165.177011</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1692283992701452</v>
+        <v>0.1788875725343713</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04078073209391977</v>
+        <v>0.04336331019640897</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2647673046.148527</v>
+        <v>2828175123.883654</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1399906593578577</v>
+        <v>0.1238302310309587</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04864013417604756</v>
+        <v>0.0397142017590603</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5001962800.543897</v>
+        <v>4818292150.312674</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06829431866081055</v>
+        <v>0.06939478445002871</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02874928319401166</v>
+        <v>0.03140631037470474</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,16 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2489962682.372652</v>
+        <v>2938651699.024012</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1250487749545142</v>
+        <v>0.187593837903956</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03248061825292048</v>
+        <v>0.03592618426667219</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1109984296.665268</v>
+        <v>1400779084.957662</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1037352813253895</v>
+        <v>0.08345086918408701</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04556489158368582</v>
+        <v>0.04711498028565436</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2571322230.498024</v>
+        <v>2391823137.792985</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07955096517992127</v>
+        <v>0.07802779912830711</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04424172614748029</v>
+        <v>0.04719952942692696</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4545511479.385396</v>
+        <v>4890367278.409215</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1066050653000068</v>
+        <v>0.1746314932379645</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04354231194967905</v>
+        <v>0.04382210730125446</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,16 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2560203695.62137</v>
+        <v>3290112422.347951</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1771001216860099</v>
+        <v>0.1773517768733849</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02764977633903705</v>
+        <v>0.02354829519674733</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1245325487.616647</v>
+        <v>874703045.4992274</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1362995747561214</v>
+        <v>0.1506275186742273</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02180608687835409</v>
+        <v>0.02068825369535365</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1985443091.104356</v>
+        <v>2406285910.536597</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1484278663183013</v>
+        <v>0.1279969046105104</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02788007675238082</v>
+        <v>0.02476472103039159</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2116080165.272365</v>
+        <v>2416566512.168635</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07342511360143128</v>
+        <v>0.09435411936804459</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03135928830783798</v>
+        <v>0.02988428052789065</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3010620338.758058</v>
+        <v>2615233724.032517</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09348905629942371</v>
+        <v>0.117643858616974</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04411239273690712</v>
+        <v>0.05000644704527266</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,22 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1466505128.578867</v>
+        <v>1031539238.949956</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1309081725909423</v>
+        <v>0.1127934404302134</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03989275615316339</v>
+        <v>0.05455959199532388</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4126423350.991649</v>
+        <v>3956331858.793059</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1254934670133619</v>
+        <v>0.1076059726741446</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02961345983473071</v>
+        <v>0.031713586892351</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>927738397.101864</v>
+        <v>1379113024.620821</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1190995579478337</v>
+        <v>0.09498115723536449</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02686064900153186</v>
+        <v>0.02556150820834042</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1423541165.236349</v>
+        <v>1422877178.445113</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08922079319746376</v>
+        <v>0.1112028167955035</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02998690312398058</v>
+        <v>0.03673575594604041</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3267143808.547421</v>
+        <v>2987542196.145572</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1538714051711207</v>
+        <v>0.118263485723946</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02596690576012255</v>
+        <v>0.02376221293385477</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3900536283.323623</v>
+        <v>3057123899.73842</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1484594300363803</v>
+        <v>0.1409040361385309</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04110544825002568</v>
+        <v>0.05009840460507718</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4817767305.981384</v>
+        <v>5088418409.490239</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1017910801489254</v>
+        <v>0.1312930088473541</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04641882729294232</v>
+        <v>0.03220615909839282</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2040510464.508453</v>
+        <v>2209647082.913584</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1302468615014467</v>
+        <v>0.1134084948263697</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03034836292647778</v>
+        <v>0.03494079499703143</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1304835830.736658</v>
+        <v>1019813538.182619</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1052607616687751</v>
+        <v>0.1035028447792247</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04072516215348216</v>
+        <v>0.03182891886987444</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1433502912.308423</v>
+        <v>1485564231.782979</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1110791886246223</v>
+        <v>0.08363940521761616</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0377817011632104</v>
+        <v>0.03854774869183278</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2877607545.663285</v>
+        <v>3009164379.573333</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1692983309836941</v>
+        <v>0.1424623804198265</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03822180382521168</v>
+        <v>0.04192672954272914</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1550157310.876979</v>
+        <v>1370899580.995906</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1111913668591604</v>
+        <v>0.1057208462171776</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01886464481922498</v>
+        <v>0.01716001900797176</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1160323348.077714</v>
+        <v>882258231.9239042</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1129033380544965</v>
+        <v>0.1116278762631005</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04516793008930637</v>
+        <v>0.03378071106760868</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2714828601.086792</v>
+        <v>2057515539.674228</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1679224468758339</v>
+        <v>0.176717773089247</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02321647060604143</v>
+        <v>0.01967715278220141</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,16 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1794170548.053377</v>
+        <v>2149007917.606318</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06874390522376707</v>
+        <v>0.09952408403628454</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03895055233197831</v>
+        <v>0.03238518333121363</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1999112053.601755</v>
+        <v>1731284442.347588</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09969723115987149</v>
+        <v>0.1189303869998788</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03288422380755143</v>
+        <v>0.02596934599268796</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2173119518.224719</v>
+        <v>1951352501.051454</v>
       </c>
       <c r="F39" t="n">
-        <v>0.191731880237804</v>
+        <v>0.1451102805126815</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02789442273296682</v>
+        <v>0.02204739128819741</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1317284025.311949</v>
+        <v>1458016906.59936</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1117734323728945</v>
+        <v>0.1345338659506521</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05287966851274738</v>
+        <v>0.05946450348080522</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2520873751.468429</v>
+        <v>2926404155.169083</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1305164292971804</v>
+        <v>0.1573790063812472</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02908117414832297</v>
+        <v>0.04665446578586779</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4126076866.337812</v>
+        <v>3871674894.561752</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1274954701186195</v>
+        <v>0.09203132715725576</v>
       </c>
       <c r="G42" t="n">
-        <v>0.043284382497631</v>
+        <v>0.03674859047099704</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1921320440.994632</v>
+        <v>2778529433.843441</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1619632254027861</v>
+        <v>0.1871796548821218</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02358422231300546</v>
+        <v>0.01893995703328032</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1879362720.07413</v>
+        <v>1488987139.67011</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1007366734696294</v>
+        <v>0.08032155229024769</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02725399339869822</v>
+        <v>0.0276861775627533</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2079366529.930342</v>
+        <v>1647261602.771109</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1944001999702497</v>
+        <v>0.1878306623874652</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05280970012363813</v>
+        <v>0.04294400476829152</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5543942868.314841</v>
+        <v>3918092593.130532</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1547110015076204</v>
+        <v>0.1732073525096322</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0377676296196292</v>
+        <v>0.04080006283230401</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3370592437.880176</v>
+        <v>4758909438.355366</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1323386859719814</v>
+        <v>0.1585671040855043</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04697652640875941</v>
+        <v>0.04537773324729146</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4172535843.997668</v>
+        <v>4271820356.031424</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1070192949884666</v>
+        <v>0.09496788920081814</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02688613653053917</v>
+        <v>0.02441143118602888</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1252758926.741894</v>
+        <v>1268851724.151506</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1943973689461143</v>
+        <v>0.1966645869219767</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04484697785833071</v>
+        <v>0.04044949787232573</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3340870656.731564</v>
+        <v>3838765985.205526</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1476078943686016</v>
+        <v>0.1722640911929152</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0445661328108653</v>
+        <v>0.0474047139344162</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1472390358.431164</v>
+        <v>996600014.7991984</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1748505418492271</v>
+        <v>0.1221595811198368</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04097762836726315</v>
+        <v>0.04068384201541153</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5117324997.155632</v>
+        <v>4592001190.466788</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1199882601933819</v>
+        <v>0.1311912399225897</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05243045101069695</v>
+        <v>0.05510578518430304</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3357243466.608871</v>
+        <v>3742150228.690832</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1515580694284364</v>
+        <v>0.1594663467042182</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03487816258730794</v>
+        <v>0.02428052550520982</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3290828233.703825</v>
+        <v>4491427949.844254</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1216892245361467</v>
+        <v>0.1540497199561391</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04679788746021339</v>
+        <v>0.03643660451247705</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,19 +1964,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3701146964.660909</v>
+        <v>4767516655.838081</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1900499316500853</v>
+        <v>0.1528186943961389</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02490723685058215</v>
+        <v>0.03243842076554875</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1869334097.932923</v>
+        <v>1654404501.210765</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1553391226209383</v>
+        <v>0.1325839745862123</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0475017782620579</v>
+        <v>0.04492316794293055</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2933874025.278489</v>
+        <v>2983546062.43813</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1145635302515146</v>
+        <v>0.1448633903910556</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01892468793075867</v>
+        <v>0.01749408697485239</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1430654420.878067</v>
+        <v>1881950723.565755</v>
       </c>
       <c r="F58" t="n">
-        <v>0.202098295197405</v>
+        <v>0.180765290369996</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03119813062501957</v>
+        <v>0.0261726649306558</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5304246001.341808</v>
+        <v>3399680447.307704</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1271593709349005</v>
+        <v>0.1192231033241675</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04996861860811096</v>
+        <v>0.0368624652633082</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2965590242.203952</v>
+        <v>3711649324.675724</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1896651348077283</v>
+        <v>0.1845602037458014</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03167030362420465</v>
+        <v>0.03188859920350118</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2973387418.980242</v>
+        <v>2263566123.869852</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1591755250685805</v>
+        <v>0.1248020484695923</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0317347766030623</v>
+        <v>0.0270945052285961</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1729575796.997104</v>
+        <v>2048713638.581602</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1361925045719184</v>
+        <v>0.1608749462315665</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04634421313147821</v>
+        <v>0.04708360041705771</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5300611195.317748</v>
+        <v>4228876718.695693</v>
       </c>
       <c r="F63" t="n">
-        <v>0.103152399767842</v>
+        <v>0.06756195541507723</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03090727806839411</v>
+        <v>0.03251731137605328</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3595347811.953145</v>
+        <v>5097058720.499035</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1659650250357833</v>
+        <v>0.1286380011476685</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02773777991611382</v>
+        <v>0.03474720508056926</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3989329427.720336</v>
+        <v>3702298443.275565</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1236256913875721</v>
+        <v>0.1314685086620451</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03086102492658434</v>
+        <v>0.02077887017433873</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5362840395.577127</v>
+        <v>4835507646.358627</v>
       </c>
       <c r="F66" t="n">
-        <v>0.120788052110878</v>
+        <v>0.1312287251284552</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04324069355898515</v>
+        <v>0.0367902799508985</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,16 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2661310961.164901</v>
+        <v>2808669839.074119</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08533109102922719</v>
+        <v>0.08752634438741888</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04214413836996714</v>
+        <v>0.03197581840846909</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4179379945.663926</v>
+        <v>4427247205.469073</v>
       </c>
       <c r="F68" t="n">
-        <v>0.154343920275811</v>
+        <v>0.1319488697304328</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03786619798389442</v>
+        <v>0.03835000846176098</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2088166199.406923</v>
+        <v>1585208128.653232</v>
       </c>
       <c r="F69" t="n">
-        <v>0.174867557774248</v>
+        <v>0.1778909723910743</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05097541282497434</v>
+        <v>0.05635940177809051</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3080990873.121775</v>
+        <v>3361940086.709414</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07405552388857224</v>
+        <v>0.0755084930489362</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04824096446295308</v>
+        <v>0.03749324379098531</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5168720442.801749</v>
+        <v>4190252760.927263</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1312334251292047</v>
+        <v>0.1793998268294817</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02721317806444933</v>
+        <v>0.02071562059681687</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2280927364.08177</v>
+        <v>2219107756.333024</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08339242576373458</v>
+        <v>0.1064960589753304</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05048566003788547</v>
+        <v>0.0331531049379028</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3424526088.115125</v>
+        <v>2513157128.844113</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1067221411995565</v>
+        <v>0.1069889686907883</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03444632271277416</v>
+        <v>0.03768456297296648</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3873680324.828873</v>
+        <v>3093312149.087639</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1746332620772319</v>
+        <v>0.1284524573327296</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03178293623467211</v>
+        <v>0.03026245594386513</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1854967899.144539</v>
+        <v>2050640235.485687</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1492454252788635</v>
+        <v>0.127757655420978</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03683535659204477</v>
+        <v>0.0280441546852505</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4472158825.766309</v>
+        <v>3955553580.238303</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1010241388423169</v>
+        <v>0.1108470175920726</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02442420661366143</v>
+        <v>0.02982235064362827</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1623461586.528633</v>
+        <v>1654482621.3566</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1658038513733298</v>
+        <v>0.1166444482210381</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0316316946499766</v>
+        <v>0.02281630864665618</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4059703054.173459</v>
+        <v>3894930317.799417</v>
       </c>
       <c r="F78" t="n">
-        <v>0.112649161958801</v>
+        <v>0.1003447955945615</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03960185248172164</v>
+        <v>0.0440029748468303</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1306206622.88283</v>
+        <v>1692882185.351995</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1303002840379274</v>
+        <v>0.1176602301783821</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04066860273794658</v>
+        <v>0.03905316591699536</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3575426666.43348</v>
+        <v>4479215783.200375</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1098701522165261</v>
+        <v>0.1037747422512613</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0234745498006775</v>
+        <v>0.02664311204490505</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3927030001.04354</v>
+        <v>3658735639.808621</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1372507054416457</v>
+        <v>0.09767438110523285</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02291639758293303</v>
+        <v>0.03270541507564957</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4502697294.970189</v>
+        <v>3581115681.797642</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1531193542508172</v>
+        <v>0.1932978931964106</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01907644676284366</v>
+        <v>0.02015559323927101</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2318356228.10131</v>
+        <v>2438252682.97643</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1208270247312916</v>
+        <v>0.1559815469438224</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0318725255864951</v>
+        <v>0.03802995307743074</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2782,16 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1834669490.751184</v>
+        <v>2165384946.621185</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1034744145164746</v>
+        <v>0.1212548607359852</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04180301188259519</v>
+        <v>0.03478221354528892</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3556564717.433027</v>
+        <v>2631314490.958951</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1165010974369409</v>
+        <v>0.140027248204161</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04458806561512352</v>
+        <v>0.04125828368798563</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,16 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2075966944.176377</v>
+        <v>2312449973.352963</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1703531068823225</v>
+        <v>0.128135607770552</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02022019808171231</v>
+        <v>0.02417584000797624</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1374523073.832416</v>
+        <v>1324107955.259305</v>
       </c>
       <c r="F87" t="n">
-        <v>0.157675952930955</v>
+        <v>0.1154761930887629</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03926263208799947</v>
+        <v>0.03299841202803974</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3557420929.824138</v>
+        <v>3589325258.684747</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1172450612082406</v>
+        <v>0.1399989700908478</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03541107018198406</v>
+        <v>0.04000201219481963</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3402630237.910049</v>
+        <v>2681621115.76452</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1128525333199516</v>
+        <v>0.1107827023049233</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03686764400725386</v>
+        <v>0.0379063771011272</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1563998107.879289</v>
+        <v>1554342335.090199</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08730020096003659</v>
+        <v>0.1243803828953534</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0490649533853171</v>
+        <v>0.04845334764911118</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1302338368.600123</v>
+        <v>1483426996.649896</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1242367791326177</v>
+        <v>0.1341851495222635</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04703410934444378</v>
+        <v>0.04619801380458072</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2088082373.034375</v>
+        <v>2751593344.98853</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08569936220547927</v>
+        <v>0.08566120102979687</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04580244113327495</v>
+        <v>0.03792037287506619</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,13 +3034,13 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3468698160.940258</v>
+        <v>4397685645.998928</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1138661668604029</v>
+        <v>0.0861524811749436</v>
       </c>
       <c r="G93" t="n">
-        <v>0.041818493598144</v>
+        <v>0.0523449120172514</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1878061593.672713</v>
+        <v>2244212828.78701</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1587293955847472</v>
+        <v>0.1212264557513456</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02711900285129479</v>
+        <v>0.02969231710700562</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2674234733.353425</v>
+        <v>2000341233.652865</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08402283598111918</v>
+        <v>0.1045002804636418</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04495176376341806</v>
+        <v>0.04547246458352298</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1912575417.237744</v>
+        <v>1522626645.444439</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1369777816848267</v>
+        <v>0.1319662951606822</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04717958887857359</v>
+        <v>0.04433178931476224</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4606258076.509088</v>
+        <v>4863629589.697329</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1317482343214833</v>
+        <v>0.1247215291249121</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02022848871623629</v>
+        <v>0.01885933959044159</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3263032779.005628</v>
+        <v>3857758811.057542</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08751569398514801</v>
+        <v>0.08254914188899169</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0228784138038552</v>
+        <v>0.03154110307840421</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3304931109.30695</v>
+        <v>2993978776.899172</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1024873392369254</v>
+        <v>0.0970116083956736</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02666730081463751</v>
+        <v>0.02802512526344176</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3777011566.900125</v>
+        <v>2982702880.007959</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1290726655477566</v>
+        <v>0.1664612564801932</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02725538935563826</v>
+        <v>0.02293569618156085</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,22 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2976579036.250657</v>
+        <v>2773509524.630202</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1873621648869087</v>
+        <v>0.135797107090181</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03815660717375642</v>
+        <v>0.05827995338291069</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_173.xlsx
+++ b/output/fit_clients/fit_round_173.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2224682957.161125</v>
+        <v>2033270653.96393</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1019867865856904</v>
+        <v>0.09500121885782022</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03066171098707183</v>
+        <v>0.03668963450630836</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2232899720.545877</v>
+        <v>2290678807.246063</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1303896192403138</v>
+        <v>0.1830604367115217</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03844192355877379</v>
+        <v>0.03593076165315372</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,16 +571,25 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4634484336.14994</v>
+        <v>3818364000.737919</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1121972691463411</v>
+        <v>0.1607261722459278</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0310985126921381</v>
+        <v>0.03277298139502516</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>96</v>
+      </c>
+      <c r="J4" t="n">
+        <v>172</v>
+      </c>
+      <c r="K4" t="n">
+        <v>116.0612348537244</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +602,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2638137409.046345</v>
+        <v>3000640503.417719</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0962693557211456</v>
+        <v>0.08773295431939368</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03151526344074507</v>
+        <v>0.03443783090628578</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>71</v>
+      </c>
+      <c r="J5" t="n">
+        <v>172</v>
+      </c>
+      <c r="K5" t="n">
+        <v>82.89219049569239</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +639,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2734511448.075611</v>
+        <v>2309325040.663367</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09628611778603961</v>
+        <v>0.1264264958327719</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04924803130255435</v>
+        <v>0.03477181776496052</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +674,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2035877457.561892</v>
+        <v>2409598771.157806</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0628793555005383</v>
+        <v>0.08421163335461163</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0327052224947025</v>
+        <v>0.03696735862626235</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +715,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3639300174.607281</v>
+        <v>3684161038.854873</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1603501602397582</v>
+        <v>0.1806697758788003</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02068729801255747</v>
+        <v>0.02591964644063816</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>49</v>
+      </c>
+      <c r="J8" t="n">
+        <v>173</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1559427922.65196</v>
+        <v>1664581947.15035</v>
       </c>
       <c r="F9" t="n">
-        <v>0.178301092567679</v>
+        <v>0.1697182124970977</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02515780331360288</v>
+        <v>0.03325055804972176</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5332050128.008292</v>
+        <v>3880417411.048863</v>
       </c>
       <c r="F10" t="n">
-        <v>0.156543848246013</v>
+        <v>0.1809907690605684</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04946502177056235</v>
+        <v>0.04013319610093836</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>159</v>
+      </c>
+      <c r="J10" t="n">
+        <v>173</v>
+      </c>
+      <c r="K10" t="n">
+        <v>134.3535049608396</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +816,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3355673165.177011</v>
+        <v>3087059629.168383</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1788875725343713</v>
+        <v>0.1803098263317323</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04336331019640897</v>
+        <v>0.04945516091565989</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>72</v>
+      </c>
+      <c r="J11" t="n">
+        <v>171</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2828175123.883654</v>
+        <v>3225766701.550432</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1238302310309587</v>
+        <v>0.1868468104422245</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0397142017590603</v>
+        <v>0.04539914903509827</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +886,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4818292150.312674</v>
+        <v>4696763348.97078</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06939478445002871</v>
+        <v>0.08586873832957852</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03140631037470474</v>
+        <v>0.02519351048572123</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>85</v>
+      </c>
+      <c r="J13" t="n">
+        <v>172</v>
+      </c>
+      <c r="K13" t="n">
+        <v>128.5627130949519</v>
       </c>
     </row>
     <row r="14">
@@ -822,17 +929,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2938651699.024012</v>
+        <v>3365288220.72911</v>
       </c>
       <c r="F14" t="n">
-        <v>0.187593837903956</v>
+        <v>0.1624771495757832</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03592618426667219</v>
+        <v>0.02745464648267653</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>32</v>
+      </c>
+      <c r="J14" t="n">
+        <v>173</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1400779084.957662</v>
+        <v>1557341374.859859</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08345086918408701</v>
+        <v>0.1043323459415913</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04711498028565436</v>
+        <v>0.03603703700785237</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +999,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2391823137.792985</v>
+        <v>1834506743.459092</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07802779912830711</v>
+        <v>0.0733094481779203</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04719952942692696</v>
+        <v>0.0334282850593599</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1028,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4890367278.409215</v>
+        <v>5231083089.300545</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1746314932379645</v>
+        <v>0.155540531633712</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04382210730125446</v>
+        <v>0.03840736232056206</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>83</v>
+      </c>
+      <c r="J17" t="n">
+        <v>172</v>
+      </c>
+      <c r="K17" t="n">
+        <v>118.0854661855024</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1065,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3290112422.347951</v>
+        <v>3204346290.513177</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1773517768733849</v>
+        <v>0.1445752442710923</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02354829519674733</v>
+        <v>0.02513418135280248</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>44</v>
+      </c>
+      <c r="J18" t="n">
+        <v>171</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>874703045.4992274</v>
+        <v>1032619666.858578</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1506275186742273</v>
+        <v>0.1625747017472108</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02068825369535365</v>
+        <v>0.01757377653055571</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1135,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2406285910.536597</v>
+        <v>2198709073.125413</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1279969046105104</v>
+        <v>0.146295409290599</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02476472103039159</v>
+        <v>0.02084674280190726</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1170,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2416566512.168635</v>
+        <v>2236596687.285271</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09435411936804459</v>
+        <v>0.06455049259500471</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02988428052789065</v>
+        <v>0.03967976394503474</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1205,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2615233724.032517</v>
+        <v>3474079316.288112</v>
       </c>
       <c r="F22" t="n">
-        <v>0.117643858616974</v>
+        <v>0.09046725031076142</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05000644704527266</v>
+        <v>0.0479981382779852</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>44</v>
+      </c>
+      <c r="J22" t="n">
+        <v>173</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1246,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1031539238.949956</v>
+        <v>1418283621.667834</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1127934404302134</v>
+        <v>0.183855775718588</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05455959199532388</v>
+        <v>0.04897917826914538</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1275,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3956331858.793059</v>
+        <v>4051201476.945458</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1076059726741446</v>
+        <v>0.130142897547212</v>
       </c>
       <c r="G24" t="n">
-        <v>0.031713586892351</v>
+        <v>0.03713417149074722</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>51</v>
+      </c>
+      <c r="J24" t="n">
+        <v>173</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1316,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1379113024.620821</v>
+        <v>918683693.0252714</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09498115723536449</v>
+        <v>0.08176223197520668</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02556150820834042</v>
+        <v>0.02059337922731043</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1422877178.445113</v>
+        <v>1287101380.359479</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1112028167955035</v>
+        <v>0.09253289636914534</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03673575594604041</v>
+        <v>0.02776599392531133</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1380,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2987542196.145572</v>
+        <v>2846516450.013553</v>
       </c>
       <c r="F27" t="n">
-        <v>0.118263485723946</v>
+        <v>0.1070419193696794</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02376221293385477</v>
+        <v>0.01932508255889485</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>69</v>
+      </c>
+      <c r="J27" t="n">
+        <v>171</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3057123899.73842</v>
+        <v>2999942316.675649</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1409040361385309</v>
+        <v>0.1028593449763146</v>
       </c>
       <c r="G28" t="n">
-        <v>0.05009840460507718</v>
+        <v>0.04901093516409148</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>33</v>
+      </c>
+      <c r="J28" t="n">
+        <v>171</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5088418409.490239</v>
+        <v>5932463634.854544</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1312930088473541</v>
+        <v>0.1437537135181621</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03220615909839282</v>
+        <v>0.03337041601793505</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>162</v>
+      </c>
+      <c r="J29" t="n">
+        <v>173</v>
+      </c>
+      <c r="K29" t="n">
+        <v>149.6679556423626</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2209647082.913584</v>
+        <v>2234729022.571497</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1134084948263697</v>
+        <v>0.1055375596953965</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03494079499703143</v>
+        <v>0.02581531160396084</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1528,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1019813538.182619</v>
+        <v>1168716449.930242</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1035028447792247</v>
+        <v>0.07067507901010572</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03182891886987444</v>
+        <v>0.04139066737390771</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1485564231.782979</v>
+        <v>1231388315.99407</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08363940521761616</v>
+        <v>0.08629152469946373</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03854774869183278</v>
+        <v>0.03685685177513108</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3009164379.573333</v>
+        <v>2516380970.386202</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1424623804198265</v>
+        <v>0.1661225326112462</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04192672954272914</v>
+        <v>0.05233408819135578</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1370899580.995906</v>
+        <v>1419671963.37494</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1057208462171776</v>
+        <v>0.1143517882786747</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01716001900797176</v>
+        <v>0.0225742287726225</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>882258231.9239042</v>
+        <v>1233707028.700934</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1116278762631005</v>
+        <v>0.08414083588907037</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03378071106760868</v>
+        <v>0.03044806574255002</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2057515539.674228</v>
+        <v>2905926831.533257</v>
       </c>
       <c r="F36" t="n">
-        <v>0.176717773089247</v>
+        <v>0.1182838525961459</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01967715278220141</v>
+        <v>0.01977206048583137</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2149007917.606318</v>
+        <v>1911696066.111789</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09952408403628454</v>
+        <v>0.08905238108646087</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03238518333121363</v>
+        <v>0.02584955340869914</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1773,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1731284442.347588</v>
+        <v>2145444920.910048</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1189303869998788</v>
+        <v>0.1165785397978911</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02596934599268796</v>
+        <v>0.03856419689628707</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1808,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1951352501.051454</v>
+        <v>1756474720.45473</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1451102805126815</v>
+        <v>0.1278991735104813</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02204739128819741</v>
+        <v>0.03002817888739659</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1458016906.59936</v>
+        <v>1368407164.43483</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1345338659506521</v>
+        <v>0.1350083654717299</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05946450348080522</v>
+        <v>0.04896319251450341</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1878,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2926404155.169083</v>
+        <v>2301993983.453962</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1573790063812472</v>
+        <v>0.1149632420702714</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04665446578586779</v>
+        <v>0.03357684272128248</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1907,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3871674894.561752</v>
+        <v>3707410021.190578</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09203132715725576</v>
+        <v>0.1188836423603542</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03674859047099704</v>
+        <v>0.03799546177664323</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>64</v>
+      </c>
+      <c r="J42" t="n">
+        <v>173</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1634,17 +1948,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2778529433.843441</v>
+        <v>1937673850.592</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1871796548821218</v>
+        <v>0.1523475258100849</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01893995703328032</v>
+        <v>0.01560050668908131</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1488987139.67011</v>
+        <v>2063723272.734785</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08032155229024769</v>
+        <v>0.07298390783340658</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0276861775627533</v>
+        <v>0.03094910649478241</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2018,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1647261602.771109</v>
+        <v>2389486699.495877</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1878306623874652</v>
+        <v>0.1906237940588956</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04294400476829152</v>
+        <v>0.04849397662621827</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2047,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3918092593.130532</v>
+        <v>4670233027.46516</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1732073525096322</v>
+        <v>0.1258781923026658</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04080006283230401</v>
+        <v>0.03951642683561808</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>97</v>
+      </c>
+      <c r="J46" t="n">
+        <v>173</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2082,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4758909438.355366</v>
+        <v>3124656604.595566</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1585671040855043</v>
+        <v>0.1977919342479255</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04537773324729146</v>
+        <v>0.04693686535691256</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>77</v>
+      </c>
+      <c r="J47" t="n">
+        <v>172</v>
+      </c>
+      <c r="K47" t="n">
+        <v>64.89864007776163</v>
       </c>
     </row>
     <row r="48">
@@ -1774,17 +2125,24 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4271820356.031424</v>
+        <v>3751035870.044555</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09496788920081814</v>
+        <v>0.101500898832207</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02441143118602888</v>
+        <v>0.03592643842819737</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>78</v>
+      </c>
+      <c r="J48" t="n">
+        <v>173</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2154,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1268851724.151506</v>
+        <v>1318813350.869613</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1966645869219767</v>
+        <v>0.1949781745094934</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04044949787232573</v>
+        <v>0.03106532052150532</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2195,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3838765985.205526</v>
+        <v>2969982397.681057</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1722640911929152</v>
+        <v>0.1099716551813906</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0474047139344162</v>
+        <v>0.05139909567120028</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>56</v>
+      </c>
+      <c r="J50" t="n">
+        <v>171</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2224,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>996600014.7991984</v>
+        <v>1250612834.313407</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1221595811198368</v>
+        <v>0.1254792073103252</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04068384201541153</v>
+        <v>0.03851609101899543</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2259,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4592001190.466788</v>
+        <v>4779093138.794857</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1311912399225897</v>
+        <v>0.08417471171706457</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05510578518430304</v>
+        <v>0.06062866090067241</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>123</v>
+      </c>
+      <c r="J52" t="n">
+        <v>172</v>
+      </c>
+      <c r="K52" t="n">
+        <v>129.4439955275674</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2296,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3742150228.690832</v>
+        <v>2386934769.737336</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1594663467042182</v>
+        <v>0.134951126294805</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02428052550520982</v>
+        <v>0.02635920541437338</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>23</v>
+      </c>
+      <c r="J53" t="n">
+        <v>170</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2331,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4491427949.844254</v>
+        <v>4590037619.852103</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1540497199561391</v>
+        <v>0.1627462965948867</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03643660451247705</v>
+        <v>0.04374949978680399</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>86</v>
+      </c>
+      <c r="J54" t="n">
+        <v>173</v>
+      </c>
+      <c r="K54" t="n">
+        <v>133.6753185878441</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2368,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4767516655.838081</v>
+        <v>3893619501.20728</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1528186943961389</v>
+        <v>0.1574694628018431</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03243842076554875</v>
+        <v>0.02478127412604821</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>78</v>
+      </c>
+      <c r="J55" t="n">
+        <v>173</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1998,17 +2409,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1654404501.210765</v>
+        <v>1888073163.905942</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1325839745862123</v>
+        <v>0.1569382270377011</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04492316794293055</v>
+        <v>0.05216148499979796</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2438,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2983546062.43813</v>
+        <v>3367624804.950241</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1448633903910556</v>
+        <v>0.1114051453865157</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01749408697485239</v>
+        <v>0.02627450384586612</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>70</v>
+      </c>
+      <c r="J57" t="n">
+        <v>172</v>
+      </c>
+      <c r="K57" t="n">
+        <v>90.83304747758098</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1881950723.565755</v>
+        <v>1238270041.757188</v>
       </c>
       <c r="F58" t="n">
-        <v>0.180765290369996</v>
+        <v>0.1659696204573875</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0261726649306558</v>
+        <v>0.03905179945118803</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2510,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3399680447.307704</v>
+        <v>3349873051.176784</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1192231033241675</v>
+        <v>0.1095192200713543</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0368624652633082</v>
+        <v>0.04780538633451487</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
       </c>
+      <c r="I59" t="n">
+        <v>83</v>
+      </c>
+      <c r="J59" t="n">
+        <v>171</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2545,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3711649324.675724</v>
+        <v>2760987538.084417</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1845602037458014</v>
+        <v>0.1275298305718089</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03188859920350118</v>
+        <v>0.03310680785030041</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>26</v>
+      </c>
+      <c r="J60" t="n">
+        <v>170</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2580,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2263566123.869852</v>
+        <v>2523514769.112632</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1248020484695923</v>
+        <v>0.133709047594735</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0270945052285961</v>
+        <v>0.02464166090330762</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>5</v>
+      </c>
+      <c r="J61" t="n">
+        <v>158</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2621,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2048713638.581602</v>
+        <v>1844896554.15763</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1608749462315665</v>
+        <v>0.151641553775724</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04708360041705771</v>
+        <v>0.03575947322918682</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2650,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4228876718.695693</v>
+        <v>4700398298.467234</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06756195541507723</v>
+        <v>0.09059654577153177</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03251731137605328</v>
+        <v>0.03164649729533444</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>85</v>
+      </c>
+      <c r="J63" t="n">
+        <v>172</v>
+      </c>
+      <c r="K63" t="n">
+        <v>120.9738042446125</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2687,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5097058720.499035</v>
+        <v>5355245096.591628</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1286380011476685</v>
+        <v>0.1232959716107608</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03474720508056926</v>
+        <v>0.02212177715041349</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>85</v>
+      </c>
+      <c r="J64" t="n">
+        <v>173</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2250,16 +2728,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3702298443.275565</v>
+        <v>5881398811.312778</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1314685086620451</v>
+        <v>0.1178685166261003</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02077887017433873</v>
+        <v>0.0308941472072203</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>142</v>
+      </c>
+      <c r="J65" t="n">
+        <v>172</v>
+      </c>
+      <c r="K65" t="n">
+        <v>132.2202399694444</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2759,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4835507646.358627</v>
+        <v>4718943527.615673</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1312287251284552</v>
+        <v>0.1578425760822801</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0367902799508985</v>
+        <v>0.03375904981926769</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>85</v>
+      </c>
+      <c r="J66" t="n">
+        <v>172</v>
+      </c>
+      <c r="K66" t="n">
+        <v>119.879439066439</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2808669839.074119</v>
+        <v>2321765791.449526</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08752634438741888</v>
+        <v>0.06395012113931114</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03197581840846909</v>
+        <v>0.0462323151533236</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>157</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,16 +2837,25 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4427247205.469073</v>
+        <v>4218698052.185329</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1319488697304328</v>
+        <v>0.133693532154066</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03835000846176098</v>
+        <v>0.04303685565347461</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>87</v>
+      </c>
+      <c r="J68" t="n">
+        <v>172</v>
+      </c>
+      <c r="K68" t="n">
+        <v>122.4532893898193</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1585208128.653232</v>
+        <v>1888196102.534434</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1778909723910743</v>
+        <v>0.1724844312999311</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05635940177809051</v>
+        <v>0.04943615902668812</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2909,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3361940086.709414</v>
+        <v>2280229833.02019</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0755084930489362</v>
+        <v>0.07339283720238224</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03749324379098531</v>
+        <v>0.03760523609533666</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>25</v>
+      </c>
+      <c r="J70" t="n">
+        <v>167</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2938,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4190252760.927263</v>
+        <v>4104282070.396223</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1793998268294817</v>
+        <v>0.1286051105582708</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02071562059681687</v>
+        <v>0.02546946905693803</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>136</v>
+      </c>
+      <c r="J71" t="n">
+        <v>173</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2973,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2219107756.333024</v>
+        <v>1867716576.076387</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1064960589753304</v>
+        <v>0.09865921648802572</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0331531049379028</v>
+        <v>0.03673023650884565</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3008,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2513157128.844113</v>
+        <v>2573899107.716551</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1069889686907883</v>
+        <v>0.09503516155433325</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03768456297296648</v>
+        <v>0.0473944152485957</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>10</v>
+      </c>
+      <c r="J73" t="n">
+        <v>134</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3043,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3093312149.087639</v>
+        <v>3666949183.593703</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1284524573327296</v>
+        <v>0.1179134992009916</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03026245594386513</v>
+        <v>0.02207336106034007</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>51</v>
+      </c>
+      <c r="J74" t="n">
+        <v>172</v>
+      </c>
+      <c r="K74" t="n">
+        <v>111.4679238275638</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2050640235.485687</v>
+        <v>2183418858.026303</v>
       </c>
       <c r="F75" t="n">
-        <v>0.127757655420978</v>
+        <v>0.1648812437594019</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0280441546852505</v>
+        <v>0.02531430172748479</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,16 +3121,25 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3955553580.238303</v>
+        <v>3521987619.894414</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1108470175920726</v>
+        <v>0.1248152998062656</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02982235064362827</v>
+        <v>0.03421929686599122</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>79</v>
+      </c>
+      <c r="J76" t="n">
+        <v>172</v>
+      </c>
+      <c r="K76" t="n">
+        <v>83.94279511460522</v>
       </c>
     </row>
     <row r="77">
@@ -2586,17 +3158,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1654482621.3566</v>
+        <v>2132560844.056517</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1166444482210381</v>
+        <v>0.1289990014011523</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02281630864665618</v>
+        <v>0.02642293370077337</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3187,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3894930317.799417</v>
+        <v>3994577860.322297</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1003447955945615</v>
+        <v>0.1286823808348717</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0440029748468303</v>
+        <v>0.04794538825268032</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>87</v>
+      </c>
+      <c r="J78" t="n">
+        <v>173</v>
+      </c>
+      <c r="K78" t="n">
+        <v>133.9374376628021</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1692882185.351995</v>
+        <v>1722888197.691724</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1176602301783821</v>
+        <v>0.1333662331697206</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03905316591699536</v>
+        <v>0.02579513488799048</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3259,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4479215783.200375</v>
+        <v>5028191360.482211</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1037747422512613</v>
+        <v>0.0696503922234764</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02664311204490505</v>
+        <v>0.02820592475520575</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>84</v>
+      </c>
+      <c r="J80" t="n">
+        <v>173</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3294,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3658735639.808621</v>
+        <v>3967669280.542098</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09767438110523285</v>
+        <v>0.1090921497551289</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03270541507564957</v>
+        <v>0.02408757466202799</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>79</v>
+      </c>
+      <c r="J81" t="n">
+        <v>173</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3329,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3581115681.797642</v>
+        <v>4644101104.602916</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1932978931964106</v>
+        <v>0.1395852662308251</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02015559323927101</v>
+        <v>0.02802612155932026</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>128</v>
+      </c>
+      <c r="J82" t="n">
+        <v>173</v>
+      </c>
+      <c r="K82" t="n">
+        <v>137.4866219771741</v>
       </c>
     </row>
     <row r="83">
@@ -2754,17 +3372,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2438252682.97643</v>
+        <v>1882613809.218147</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1559815469438224</v>
+        <v>0.1278305332440221</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03802995307743074</v>
+        <v>0.03426318256858118</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3407,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2165384946.621185</v>
+        <v>2412069463.91034</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1212548607359852</v>
+        <v>0.1034749898197833</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03478221354528892</v>
+        <v>0.04523844311949889</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2631314490.958951</v>
+        <v>2236019653.869683</v>
       </c>
       <c r="F85" t="n">
-        <v>0.140027248204161</v>
+        <v>0.1384622096197763</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04125828368798563</v>
+        <v>0.05148660281003896</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>27</v>
+      </c>
+      <c r="J85" t="n">
+        <v>170</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3477,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2312449973.352963</v>
+        <v>2665192483.074605</v>
       </c>
       <c r="F86" t="n">
-        <v>0.128135607770552</v>
+        <v>0.132922176709246</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02417584000797624</v>
+        <v>0.02205861156945135</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1324107955.259305</v>
+        <v>1172654472.435998</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1154761930887629</v>
+        <v>0.1746775125336042</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03299841202803974</v>
+        <v>0.04223339602051113</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3589325258.684747</v>
+        <v>2892941318.040723</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1399989700908478</v>
+        <v>0.109438644050976</v>
       </c>
       <c r="G88" t="n">
-        <v>0.04000201219481963</v>
+        <v>0.0282623329984253</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>23</v>
+      </c>
+      <c r="J88" t="n">
+        <v>157</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2681621115.76452</v>
+        <v>2360750553.623115</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1107827023049233</v>
+        <v>0.1427034455842423</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0379063771011272</v>
+        <v>0.03626604841317167</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>13</v>
+      </c>
+      <c r="J89" t="n">
+        <v>152</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1554342335.090199</v>
+        <v>1378386670.411481</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1243803828953534</v>
+        <v>0.1270908850187866</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04845334764911118</v>
+        <v>0.03445031902329887</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1483426996.649896</v>
+        <v>1586937572.891538</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1341851495222635</v>
+        <v>0.1380799892665121</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04619801380458072</v>
+        <v>0.05921902674588125</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3687,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2751593344.98853</v>
+        <v>2687365428.320598</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08566120102979687</v>
+        <v>0.09076719567417421</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03792037287506619</v>
+        <v>0.03785835281428004</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3716,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4397685645.998928</v>
+        <v>3422252946.750255</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0861524811749436</v>
+        <v>0.1142493455410754</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0523449120172514</v>
+        <v>0.03335972767168709</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>77</v>
+      </c>
+      <c r="J93" t="n">
+        <v>173</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2244212828.78701</v>
+        <v>2370402860.833376</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1212264557513456</v>
+        <v>0.1106303866509989</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02969231710700562</v>
+        <v>0.03006285318955329</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2000341233.652865</v>
+        <v>3258447369.970304</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1045002804636418</v>
+        <v>0.08612974838925094</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04547246458352298</v>
+        <v>0.04908293215011757</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1522626645.444439</v>
+        <v>1570045442.556446</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1319662951606822</v>
+        <v>0.1230222050583448</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04433178931476224</v>
+        <v>0.03062676515534484</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3856,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4863629589.697329</v>
+        <v>4292568990.279539</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1247215291249121</v>
+        <v>0.114516934175931</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01885933959044159</v>
+        <v>0.02732296960458898</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>83</v>
+      </c>
+      <c r="J97" t="n">
+        <v>173</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,22 +3891,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3857758811.057542</v>
+        <v>3832216730.50792</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08254914188899169</v>
+        <v>0.09542656069223251</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03154110307840421</v>
+        <v>0.02500734269384322</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>42</v>
+      </c>
+      <c r="J98" t="n">
+        <v>172</v>
+      </c>
+      <c r="K98" t="n">
+        <v>106.5952468219593</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2993978776.899172</v>
+        <v>2331048198.188669</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0970116083956736</v>
+        <v>0.1250073884251884</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02802512526344176</v>
+        <v>0.0268996706660481</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>135</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2982702880.007959</v>
+        <v>3746011718.338109</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1664612564801932</v>
+        <v>0.1792077371911815</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02293569618156085</v>
+        <v>0.02678291659999634</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>72</v>
+      </c>
+      <c r="J100" t="n">
+        <v>172</v>
+      </c>
+      <c r="K100" t="n">
+        <v>107.638722422792</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2773509524.630202</v>
+        <v>3405622350.659939</v>
       </c>
       <c r="F101" t="n">
-        <v>0.135797107090181</v>
+        <v>0.188672205659801</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05827995338291069</v>
+        <v>0.03685536156080264</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>15</v>
+      </c>
+      <c r="J101" t="n">
+        <v>173</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
